--- a/core/assets/sfx/licenses.xlsx
+++ b/core/assets/sfx/licenses.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Filename</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>waterCannon.wav</t>
+  </si>
+  <si>
+    <t>http://www.freesound.org/people/DrMinky/sounds/167045/</t>
+  </si>
+  <si>
+    <t>slimeJump</t>
+  </si>
+  <si>
+    <t>horrorAmbience.mp3</t>
+  </si>
+  <si>
+    <t>http://www.freesound.org/people/RoganDerrick/sounds/260440/</t>
+  </si>
+  <si>
+    <t>slimeAttackMovement.wav</t>
+  </si>
+  <si>
+    <t>http://www.freesound.org/people/wubitog/sounds/188384/</t>
   </si>
 </sst>
 </file>
@@ -438,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +594,39 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
         <v>9</v>
       </c>
     </row>
